--- a/src/app/Demo_excel.xlsx
+++ b/src/app/Demo_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total_Incidents" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Status</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Incident_Number</t>
   </si>
   <si>
-    <t>Descriptio</t>
-  </si>
-  <si>
     <t>Pop up not displaying</t>
   </si>
   <si>
@@ -85,6 +82,15 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -419,12 +425,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -447,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -490,25 +496,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>22</v>
@@ -516,7 +522,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -524,7 +530,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>34</v>
@@ -532,10 +538,26 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -548,22 +570,22 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>45</v>
@@ -571,7 +593,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -579,7 +601,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>52</v>
@@ -587,7 +609,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -595,7 +617,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -603,7 +625,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -611,7 +633,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>9</v>
